--- a/CV/PPC/Phuong Mai Anh_SD1136_PPC_Q3Q4-2016 (Finantix).xlsx
+++ b/CV/PPC/Phuong Mai Anh_SD1136_PPC_Q3Q4-2016 (Finantix).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Repositories\CV\PPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8370" tabRatio="794" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5265" tabRatio="794" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="4" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="307">
   <si>
     <t>Software Development</t>
   </si>
@@ -1030,6 +1030,90 @@
       </rPr>
       <t>-Nov-16</t>
     </r>
+  </si>
+  <si>
+    <t>- Analize the assignment and raise idea/solution to solve the problem of the assignment</t>
+  </si>
+  <si>
+    <t>- Adapt well with team members and could supporting them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Able to write tickets comments, emails, daily report.
+- </t>
+  </si>
+  <si>
+    <t>-  Able to report my tasks progress/problems directly with Client in meetings/calls.</t>
+  </si>
+  <si>
+    <t>- Able to read documents, assignments, bug report, emails, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- When I have a problem , I raise issues as soon as and get support from my team.
+-  Report my tasks progress or problems directly with Client in meetings or calls.
+- No complain from any colleages and leaders.
+</t>
+  </si>
+  <si>
+    <t>- Understand the ideas relating to my assignements or requirement during meetings or calls with Client.</t>
+  </si>
+  <si>
+    <t>- Adapt well with team members and could supporting them.
+- Monitor and tracking junior dev, review and support them to cover come their issues. (R&amp;D-PQE Project)</t>
+  </si>
+  <si>
+    <t>- Follow the changes of the task assignment and ODC process.
+- Willing to learn and apply new technologies in project (Python)</t>
+  </si>
+  <si>
+    <t>- Monitor and tracking assigned task and stick to the plan or release plan.</t>
+  </si>
+  <si>
+    <t>- Complete task assignment ontime as commitment</t>
+  </si>
+  <si>
+    <t>- Understand the requirment and are able to break the task to detail
+- Clear explain about the progress and estimation for the task.</t>
+  </si>
+  <si>
+    <t>- Proactively support other members in team to complete.
+- Be confortable and willing to take assignments of other project members to ensure the release.</t>
+  </si>
+  <si>
+    <t>- None of TL code review feedback relating to my codes is already defined in the agreed Coding Standard documents of this project.
+- UT test coverage on my codes is greater than 75% (PQE Project)</t>
+  </si>
+  <si>
+    <t>- Always smoke test before release
+- UT test coverage on my codes is greater than 75% (PQE Project)</t>
+  </si>
+  <si>
+    <t>- There is no critical/major bug occurs
+- Number of valid reopen bug &lt; 5
+- None of TL code review feedback relating to my codes quality</t>
+  </si>
+  <si>
+    <t>- Understand the requirment and are able to break the task to detail
+- Clear explain about the progress and estimation for the task.
+- Independently develop requirements of development assignments relating to project knowledge</t>
+  </si>
+  <si>
+    <t>- Independently develop requirements of development assignments relating to system knowledge
+- Conduct knowledge sharing relating to the project knowledge of this for other projects</t>
+  </si>
+  <si>
+    <t>- Create new branch when start work on a redmine requirement
+- Pull/Push code as soon as
+- Able to cherry pick from another branch</t>
+  </si>
+  <si>
+    <t>- Always wiling to go extra miles to complete work
+- Proactively support other members in team to complete.
+- Proactively raise potential project issues / risks which maynot relate to my assigmnents</t>
+  </si>
+  <si>
+    <t>- Key-in timesheet daily with comments in details and right categories &amp; info.
+- KPIs update daily and correctly work progress on the TFS, Google Drive, Slack, ...
+- Update you leave plan early and for unexpected leaves</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1724,21 +1808,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2082,7 +2151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2471,23 +2540,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2495,34 +2556,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2534,7 +2587,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2544,11 +2597,360 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2573,377 +2975,32 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3594,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:K29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3623,20 +3680,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3666,12 +3723,12 @@
         <v>204</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
@@ -3691,12 +3748,12 @@
         <v>54</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
@@ -3709,21 +3766,21 @@
       <c r="B11" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
       <c r="H11" s="19" t="s">
         <v>156</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="136" t="s">
+      <c r="J11" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
@@ -3798,20 +3855,20 @@
       <c r="B17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="235" t="s">
+      <c r="D17" s="140" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
       <c r="H17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
@@ -3824,11 +3881,11 @@
       <c r="B19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="235">
+      <c r="D19" s="140">
         <v>1</v>
       </c>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
       <c r="H19" s="19" t="s">
         <v>63</v>
       </c>
@@ -3842,7 +3899,7 @@
       <c r="L19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="240">
+      <c r="M19" s="136">
         <v>42699</v>
       </c>
     </row>
@@ -3859,21 +3916,21 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="79"/>
@@ -3891,38 +3948,38 @@
     </row>
     <row r="23" spans="1:14" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="232" t="s">
+      <c r="B23" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="236" t="s">
+      <c r="C23" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="237"/>
+      <c r="D23" s="143"/>
       <c r="E23" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="236" t="s">
+      <c r="F23" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="237"/>
-      <c r="H23" s="236" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="I23" s="237"/>
-      <c r="J23" s="236" t="s">
+      <c r="I23" s="143"/>
+      <c r="J23" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="237"/>
-      <c r="L23" s="236" t="s">
+      <c r="K23" s="143"/>
+      <c r="L23" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="237"/>
+      <c r="M23" s="143"/>
     </row>
     <row r="24" spans="1:14" s="15" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="233"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="239"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="27"/>
       <c r="F24" s="115" t="s">
         <v>232</v>
@@ -3930,192 +3987,220 @@
       <c r="G24" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="238"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="238"/>
-      <c r="M24" s="239"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="175" t="s">
+    <row r="25" spans="1:14" ht="95.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="146" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="160" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="225" t="s">
+      <c r="C25" s="154" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="226"/>
+      <c r="D25" s="155"/>
       <c r="E25" s="29">
         <v>0.2</v>
       </c>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="159"/>
-    </row>
-    <row r="26" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="227" t="s">
+      <c r="F25" s="128">
+        <v>5</v>
+      </c>
+      <c r="G25" s="128"/>
+      <c r="H25" s="235" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25" s="149"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149"/>
+    </row>
+    <row r="26" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="147"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="156" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="228"/>
+      <c r="D26" s="157"/>
       <c r="E26" s="30">
         <v>0.2</v>
       </c>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="161"/>
-    </row>
-    <row r="27" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="176"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="227" t="s">
+      <c r="F26" s="128">
+        <v>5</v>
+      </c>
+      <c r="G26" s="128"/>
+      <c r="H26" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="I26" s="151"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="151"/>
+    </row>
+    <row r="27" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="147"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="156" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="228"/>
+      <c r="D27" s="157"/>
       <c r="E27" s="30">
         <v>0.05</v>
       </c>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="161"/>
-    </row>
-    <row r="28" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
-      <c r="B28" s="146" t="s">
+      <c r="F27" s="128">
+        <v>5</v>
+      </c>
+      <c r="G27" s="128"/>
+      <c r="H27" s="205" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27" s="151"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="151"/>
+    </row>
+    <row r="28" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="147"/>
+      <c r="B28" s="231" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="227" t="s">
+      <c r="C28" s="156" t="s">
         <v>265</v>
       </c>
-      <c r="D28" s="228"/>
+      <c r="D28" s="157"/>
       <c r="E28" s="30">
         <v>0.15</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="161"/>
-    </row>
-    <row r="29" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="176"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="227" t="s">
+      <c r="F28" s="128">
+        <v>5</v>
+      </c>
+      <c r="G28" s="128"/>
+      <c r="H28" s="205" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" s="151"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="151"/>
+    </row>
+    <row r="29" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="147"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="156" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="228"/>
+      <c r="D29" s="157"/>
       <c r="E29" s="30">
         <v>0.15</v>
       </c>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="161"/>
-    </row>
-    <row r="30" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="227" t="s">
+      <c r="F29" s="128">
+        <v>3</v>
+      </c>
+      <c r="G29" s="128"/>
+      <c r="H29" s="205" t="s">
+        <v>303</v>
+      </c>
+      <c r="I29" s="151"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="151"/>
+    </row>
+    <row r="30" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="147"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="228"/>
+      <c r="D30" s="157"/>
       <c r="E30" s="30">
         <v>0.1</v>
       </c>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="161"/>
-    </row>
-    <row r="31" spans="1:14" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
+      <c r="F30" s="128">
+        <v>4</v>
+      </c>
+      <c r="G30" s="128"/>
+      <c r="H30" s="205" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" s="151"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="151"/>
+    </row>
+    <row r="31" spans="1:14" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="147"/>
       <c r="B31" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="229" t="s">
+      <c r="C31" s="158" t="s">
         <v>278</v>
       </c>
-      <c r="D31" s="230"/>
+      <c r="D31" s="159"/>
       <c r="E31" s="30">
         <v>0.15</v>
       </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="180"/>
+      <c r="F31" s="128">
+        <v>5</v>
+      </c>
+      <c r="G31" s="128"/>
+      <c r="H31" s="237" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31" s="153"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="153"/>
     </row>
     <row r="32" spans="1:14" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="165">
+      <c r="E32" s="163">
         <f>SUM(E25:E31)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="167" t="s">
+      <c r="F32" s="165" t="s">
         <v>245</v>
       </c>
-      <c r="G32" s="168"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="170"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="168"/>
     </row>
     <row r="33" spans="1:14" s="21" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="223">
+      <c r="E33" s="164"/>
+      <c r="F33" s="171">
         <f>MROUND(SUMPRODUCT(E25:E31,G25:G31),0.5)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="224"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="170"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
@@ -4132,129 +4217,145 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="175" t="s">
+    <row r="35" spans="1:14" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="146" t="s">
         <v>236</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="158" t="s">
+      <c r="C35" s="235" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="159"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="29">
         <v>0.25</v>
       </c>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="177"/>
-      <c r="M35" s="159"/>
-    </row>
-    <row r="36" spans="1:14" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
+      <c r="F35" s="128">
+        <v>5</v>
+      </c>
+      <c r="G35" s="128"/>
+      <c r="H35" s="235" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="149"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="149"/>
+    </row>
+    <row r="36" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="147"/>
       <c r="B36" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="205" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="161"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="30">
         <v>0.25</v>
       </c>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="161"/>
-    </row>
-    <row r="37" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
+      <c r="F36" s="128">
+        <v>4</v>
+      </c>
+      <c r="G36" s="128"/>
+      <c r="H36" s="205" t="s">
+        <v>299</v>
+      </c>
+      <c r="I36" s="151"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="151"/>
+    </row>
+    <row r="37" spans="1:14" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="147"/>
       <c r="B37" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="205" t="s">
         <v>274</v>
       </c>
-      <c r="D37" s="161"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="30">
         <v>0.25</v>
       </c>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="178"/>
-      <c r="M37" s="161"/>
-    </row>
-    <row r="38" spans="1:14" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="176"/>
+      <c r="F37" s="128">
+        <v>5</v>
+      </c>
+      <c r="G37" s="128"/>
+      <c r="H37" s="205" t="s">
+        <v>298</v>
+      </c>
+      <c r="I37" s="151"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="151"/>
+    </row>
+    <row r="38" spans="1:14" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="147"/>
       <c r="B38" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="C38" s="160" t="s">
+      <c r="C38" s="205" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="161"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="30">
         <v>0.25</v>
       </c>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="179"/>
-      <c r="M38" s="180"/>
+      <c r="F38" s="129">
+        <v>5</v>
+      </c>
+      <c r="G38" s="129"/>
+      <c r="H38" s="237" t="s">
+        <v>305</v>
+      </c>
+      <c r="I38" s="153"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="153"/>
     </row>
     <row r="39" spans="1:14" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="165">
+      <c r="E39" s="163">
         <f>SUM(E35:E38)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="167" t="s">
+      <c r="F39" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="168"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="170"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="168"/>
     </row>
     <row r="40" spans="1:14" s="21" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="173">
+      <c r="E40" s="164"/>
+      <c r="F40" s="187">
         <f>MROUND(SUMPRODUCT(E35:E38,G35:G38),0.5)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="174"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="172"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="169"/>
+      <c r="M40" s="170"/>
     </row>
     <row r="41" spans="1:14" s="34" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
@@ -4272,159 +4373,183 @@
       <c r="M41" s="37"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="1:14" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="218" t="s">
+    <row r="42" spans="1:14" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="180" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="167" t="s">
+      <c r="B42" s="124"/>
+      <c r="C42" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="168"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="29">
         <v>0.2</v>
       </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="159"/>
-    </row>
-    <row r="43" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
+      <c r="F42" s="129">
+        <v>5</v>
+      </c>
+      <c r="G42" s="128"/>
+      <c r="H42" s="235" t="s">
+        <v>291</v>
+      </c>
+      <c r="I42" s="149"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="149"/>
+    </row>
+    <row r="43" spans="1:14" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="181"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="181" t="s">
+      <c r="C43" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="182"/>
+      <c r="D43" s="183"/>
       <c r="E43" s="30">
         <v>0.2</v>
       </c>
-      <c r="F43" s="118"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="178"/>
-      <c r="M43" s="161"/>
-    </row>
-    <row r="44" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
+      <c r="F43" s="129">
+        <v>5</v>
+      </c>
+      <c r="G43" s="129"/>
+      <c r="H43" s="205" t="s">
+        <v>295</v>
+      </c>
+      <c r="I43" s="151"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
+    </row>
+    <row r="44" spans="1:14" ht="96" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="181"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="181" t="s">
+      <c r="C44" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="182"/>
+      <c r="D44" s="183"/>
       <c r="E44" s="30">
         <v>0.2</v>
       </c>
-      <c r="F44" s="118"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="178"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="178"/>
-      <c r="M44" s="161"/>
-    </row>
-    <row r="45" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
+      <c r="F44" s="129">
+        <v>5</v>
+      </c>
+      <c r="G44" s="129"/>
+      <c r="H44" s="205" t="s">
+        <v>294</v>
+      </c>
+      <c r="I44" s="151"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="151"/>
+    </row>
+    <row r="45" spans="1:14" ht="64.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="181"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="181" t="s">
+      <c r="C45" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="182"/>
+      <c r="D45" s="183"/>
       <c r="E45" s="30">
         <v>0.2</v>
       </c>
-      <c r="F45" s="118"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="161"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="161"/>
-    </row>
-    <row r="46" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219"/>
+      <c r="F45" s="128">
+        <v>4</v>
+      </c>
+      <c r="G45" s="128"/>
+      <c r="H45" s="205" t="s">
+        <v>286</v>
+      </c>
+      <c r="I45" s="151"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="150"/>
+      <c r="M45" s="151"/>
+    </row>
+    <row r="46" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="181"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="181" t="s">
+      <c r="C46" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="182"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="30">
         <v>0.1</v>
       </c>
-      <c r="F46" s="118"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="178"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="161"/>
-    </row>
-    <row r="47" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="219"/>
+      <c r="F46" s="129">
+        <v>5</v>
+      </c>
+      <c r="G46" s="129"/>
+      <c r="H46" s="205" t="s">
+        <v>287</v>
+      </c>
+      <c r="I46" s="151"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="151"/>
+    </row>
+    <row r="47" spans="1:14" ht="119.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="181"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="199" t="s">
+      <c r="C47" s="223" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="200"/>
+      <c r="D47" s="224"/>
       <c r="E47" s="30">
         <v>0.1</v>
       </c>
-      <c r="F47" s="119"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="179"/>
-      <c r="I47" s="180"/>
-      <c r="J47" s="179"/>
-      <c r="K47" s="180"/>
-      <c r="L47" s="179"/>
-      <c r="M47" s="180"/>
+      <c r="F47" s="128">
+        <v>4</v>
+      </c>
+      <c r="G47" s="128"/>
+      <c r="H47" s="237" t="s">
+        <v>293</v>
+      </c>
+      <c r="I47" s="153"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="153"/>
     </row>
     <row r="48" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="31"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="165">
+      <c r="E48" s="163">
         <f>SUM(E42:E47)</f>
         <v>1</v>
       </c>
-      <c r="F48" s="192" t="s">
+      <c r="F48" s="216" t="s">
         <v>243</v>
       </c>
-      <c r="G48" s="193"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="169"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="170"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="168"/>
+      <c r="L48" s="167"/>
+      <c r="M48" s="168"/>
     </row>
     <row r="49" spans="1:14" s="21" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="173">
+      <c r="E49" s="164"/>
+      <c r="F49" s="187">
         <f>MROUND(SUMPRODUCT(E42:E47,G42:G47),0.5)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="174"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="172"/>
-      <c r="L49" s="171"/>
-      <c r="M49" s="172"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="170"/>
+      <c r="L49" s="169"/>
+      <c r="M49" s="170"/>
     </row>
     <row r="50" spans="1:14" s="34" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="37"/>
@@ -4442,125 +4567,141 @@
       <c r="M50" s="37"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="1:14" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="218" t="s">
+    <row r="51" spans="1:14" ht="94.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="180" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="167" t="s">
+      <c r="C51" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="168"/>
+      <c r="D51" s="166"/>
       <c r="E51" s="29">
         <v>0.25</v>
       </c>
-      <c r="F51" s="117"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="159"/>
-      <c r="L51" s="177"/>
-      <c r="M51" s="159"/>
-    </row>
-    <row r="52" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="219"/>
+      <c r="F51" s="128">
+        <v>3</v>
+      </c>
+      <c r="G51" s="128"/>
+      <c r="H51" s="235" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="149"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="149"/>
+    </row>
+    <row r="52" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="181"/>
       <c r="B52" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="181" t="s">
+      <c r="C52" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="182"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="30">
         <v>0.25</v>
       </c>
-      <c r="F52" s="118"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="161"/>
-    </row>
-    <row r="53" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="219"/>
+      <c r="F52" s="128">
+        <v>3</v>
+      </c>
+      <c r="G52" s="128"/>
+      <c r="H52" s="205" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52" s="151"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="151"/>
+      <c r="L52" s="150"/>
+      <c r="M52" s="151"/>
+    </row>
+    <row r="53" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="181"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="181" t="s">
+      <c r="C53" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="182"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="30">
         <v>0.25</v>
       </c>
-      <c r="F53" s="118"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="161"/>
-    </row>
-    <row r="54" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="219"/>
+      <c r="F53" s="128">
+        <v>4</v>
+      </c>
+      <c r="G53" s="128"/>
+      <c r="H53" s="205" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" s="151"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="151"/>
+    </row>
+    <row r="54" spans="1:14" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="181"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="199" t="s">
+      <c r="C54" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="200"/>
+      <c r="D54" s="224"/>
       <c r="E54" s="30">
         <v>0.25</v>
       </c>
-      <c r="F54" s="119"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="179"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="179"/>
-      <c r="K54" s="180"/>
-      <c r="L54" s="179"/>
-      <c r="M54" s="180"/>
+      <c r="F54" s="128">
+        <v>4</v>
+      </c>
+      <c r="G54" s="128"/>
+      <c r="H54" s="237" t="s">
+        <v>288</v>
+      </c>
+      <c r="I54" s="153"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="152"/>
+      <c r="M54" s="153"/>
     </row>
     <row r="55" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="165">
+      <c r="E55" s="163">
         <f>SUM(E51:E54)</f>
         <v>1</v>
       </c>
-      <c r="F55" s="192" t="s">
+      <c r="F55" s="216" t="s">
         <v>244</v>
       </c>
-      <c r="G55" s="193"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="170"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="168"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="168"/>
     </row>
     <row r="56" spans="1:14" s="21" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="41"/>
-      <c r="E56" s="166"/>
-      <c r="F56" s="173">
+      <c r="E56" s="164"/>
+      <c r="F56" s="187">
         <f>MROUND(SUMPRODUCT(E51:E54,G51:G54),0.5)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="174"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="172"/>
-      <c r="L56" s="171"/>
-      <c r="M56" s="172"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="169"/>
+      <c r="M56" s="170"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4572,132 +4713,132 @@
       <c r="A59" s="36"/>
     </row>
     <row r="60" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="205" t="s">
+      <c r="A60" s="173" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="206"/>
-      <c r="C60" s="206"/>
-      <c r="D60" s="205" t="s">
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="E60" s="206"/>
-      <c r="F60" s="206"/>
-      <c r="G60" s="205" t="s">
+      <c r="E60" s="174"/>
+      <c r="F60" s="174"/>
+      <c r="G60" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="H60" s="206"/>
-      <c r="I60" s="220"/>
-      <c r="J60" s="205" t="s">
+      <c r="H60" s="174"/>
+      <c r="I60" s="184"/>
+      <c r="J60" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="K60" s="206"/>
-      <c r="L60" s="220"/>
-      <c r="M60" s="221" t="s">
+      <c r="K60" s="174"/>
+      <c r="L60" s="184"/>
+      <c r="M60" s="185" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="216"/>
-      <c r="B61" s="217"/>
-      <c r="C61" s="217"/>
+      <c r="A61" s="175"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="176"/>
       <c r="D61" s="42"/>
       <c r="E61" s="43"/>
       <c r="F61" s="44"/>
-      <c r="G61" s="201"/>
-      <c r="H61" s="202"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="202"/>
-      <c r="K61" s="202"/>
-      <c r="L61" s="213"/>
-      <c r="M61" s="222"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
+      <c r="L61" s="179"/>
+      <c r="M61" s="186"/>
     </row>
     <row r="62" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="123" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="121" t="s">
+      <c r="C62" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="117" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="121" t="s">
+      <c r="F62" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="G62" s="120" t="s">
+      <c r="G62" s="117" t="s">
         <v>208</v>
       </c>
       <c r="H62" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="I62" s="121" t="s">
+      <c r="I62" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="J62" s="124" t="s">
+      <c r="J62" s="121" t="s">
         <v>240</v>
       </c>
       <c r="K62" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="L62" s="121" t="s">
+      <c r="L62" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="M62" s="121" t="s">
+      <c r="M62" s="118" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="15" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="139">
+      <c r="A63" s="135">
         <f>F33</f>
         <v>0</v>
       </c>
       <c r="B63" s="103">
         <v>0.4</v>
       </c>
-      <c r="C63" s="129">
+      <c r="C63" s="126">
         <f>A63*B63</f>
         <v>0</v>
       </c>
-      <c r="D63" s="137">
+      <c r="D63" s="133">
         <f>F40</f>
         <v>0</v>
       </c>
       <c r="E63" s="103">
         <v>0.2</v>
       </c>
-      <c r="F63" s="129">
+      <c r="F63" s="126">
         <f>D63*E63</f>
         <v>0</v>
       </c>
-      <c r="G63" s="137">
+      <c r="G63" s="133">
         <f>F49</f>
         <v>0</v>
       </c>
       <c r="H63" s="103">
         <v>0.3</v>
       </c>
-      <c r="I63" s="129">
+      <c r="I63" s="126">
         <f>G63*H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="138">
+      <c r="J63" s="134">
         <f>F56</f>
         <v>0</v>
       </c>
-      <c r="K63" s="125">
+      <c r="K63" s="122">
         <v>0.1</v>
       </c>
-      <c r="L63" s="130">
+      <c r="L63" s="127">
         <f>J63*K63</f>
         <v>0</v>
       </c>
-      <c r="M63" s="128">
+      <c r="M63" s="125">
         <f>ROUND(C63+F63+I63+L63,1)</f>
         <v>0</v>
       </c>
@@ -4709,12 +4850,12 @@
       <c r="A65" s="36"/>
     </row>
     <row r="66" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="203">
+      <c r="A66" s="196">
         <v>1</v>
       </c>
-      <c r="B66" s="204"/>
-      <c r="C66" s="212"/>
-      <c r="D66" s="122" t="s">
+      <c r="B66" s="197"/>
+      <c r="C66" s="198"/>
+      <c r="D66" s="119" t="s">
         <v>251</v>
       </c>
       <c r="F66" s="46" t="s">
@@ -4729,66 +4870,66 @@
       <c r="M66" s="49"/>
     </row>
     <row r="67" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="201" t="s">
+      <c r="A67" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="202"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="123"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="141"/>
-      <c r="J67" s="141"/>
-      <c r="K67" s="141"/>
-      <c r="L67" s="141"/>
-      <c r="M67" s="142"/>
+      <c r="B67" s="178"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="120"/>
+      <c r="F67" s="225"/>
+      <c r="G67" s="226"/>
+      <c r="H67" s="226"/>
+      <c r="I67" s="226"/>
+      <c r="J67" s="226"/>
+      <c r="K67" s="226"/>
+      <c r="L67" s="226"/>
+      <c r="M67" s="227"/>
     </row>
     <row r="68" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="203">
+      <c r="A68" s="196">
         <v>2</v>
       </c>
-      <c r="B68" s="204">
+      <c r="B68" s="197">
         <v>2</v>
       </c>
-      <c r="C68" s="204"/>
-      <c r="D68" s="122" t="s">
+      <c r="C68" s="197"/>
+      <c r="D68" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="F68" s="140"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="141"/>
-      <c r="I68" s="141"/>
-      <c r="J68" s="141"/>
-      <c r="K68" s="141"/>
-      <c r="L68" s="141"/>
-      <c r="M68" s="142"/>
+      <c r="F68" s="225"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
+      <c r="I68" s="226"/>
+      <c r="J68" s="226"/>
+      <c r="K68" s="226"/>
+      <c r="L68" s="226"/>
+      <c r="M68" s="227"/>
     </row>
     <row r="69" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="201" t="s">
+      <c r="A69" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="202"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="123"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
-      <c r="J69" s="141"/>
-      <c r="K69" s="141"/>
-      <c r="L69" s="141"/>
-      <c r="M69" s="142"/>
+      <c r="B69" s="178"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="120"/>
+      <c r="F69" s="225"/>
+      <c r="G69" s="226"/>
+      <c r="H69" s="226"/>
+      <c r="I69" s="226"/>
+      <c r="J69" s="226"/>
+      <c r="K69" s="226"/>
+      <c r="L69" s="226"/>
+      <c r="M69" s="227"/>
     </row>
     <row r="70" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="203">
+      <c r="A70" s="196">
         <v>3</v>
       </c>
-      <c r="B70" s="204">
+      <c r="B70" s="197">
         <v>3</v>
       </c>
-      <c r="C70" s="204"/>
-      <c r="D70" s="122" t="s">
+      <c r="C70" s="197"/>
+      <c r="D70" s="119" t="s">
         <v>253</v>
       </c>
       <c r="F70" s="52" t="s">
@@ -4803,30 +4944,30 @@
       <c r="M70" s="51"/>
     </row>
     <row r="71" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="201" t="s">
+      <c r="A71" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="202"/>
-      <c r="C71" s="202"/>
-      <c r="D71" s="123"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="145"/>
+      <c r="B71" s="178"/>
+      <c r="C71" s="178"/>
+      <c r="D71" s="120"/>
+      <c r="F71" s="228"/>
+      <c r="G71" s="229"/>
+      <c r="H71" s="229"/>
+      <c r="I71" s="229"/>
+      <c r="J71" s="229"/>
+      <c r="K71" s="229"/>
+      <c r="L71" s="229"/>
+      <c r="M71" s="230"/>
     </row>
     <row r="72" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="203">
+      <c r="A72" s="196">
         <v>4</v>
       </c>
-      <c r="B72" s="204">
+      <c r="B72" s="197">
         <v>4</v>
       </c>
-      <c r="C72" s="204"/>
-      <c r="D72" s="122" t="s">
+      <c r="C72" s="197"/>
+      <c r="D72" s="119" t="s">
         <v>254</v>
       </c>
       <c r="F72" s="52" t="s">
@@ -4841,56 +4982,56 @@
       <c r="M72" s="49"/>
     </row>
     <row r="73" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="201" t="s">
+      <c r="A73" s="177" t="s">
         <v>192</v>
       </c>
-      <c r="B73" s="202"/>
-      <c r="C73" s="202"/>
-      <c r="D73" s="123"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="142"/>
+      <c r="B73" s="178"/>
+      <c r="C73" s="178"/>
+      <c r="D73" s="120"/>
+      <c r="F73" s="225"/>
+      <c r="G73" s="226"/>
+      <c r="H73" s="226"/>
+      <c r="I73" s="226"/>
+      <c r="J73" s="226"/>
+      <c r="K73" s="226"/>
+      <c r="L73" s="226"/>
+      <c r="M73" s="227"/>
     </row>
     <row r="74" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="203">
+      <c r="A74" s="196">
         <v>5</v>
       </c>
-      <c r="B74" s="204"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="122" t="s">
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="F74" s="140"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="142"/>
+      <c r="F74" s="225"/>
+      <c r="G74" s="226"/>
+      <c r="H74" s="226"/>
+      <c r="I74" s="226"/>
+      <c r="J74" s="226"/>
+      <c r="K74" s="226"/>
+      <c r="L74" s="226"/>
+      <c r="M74" s="227"/>
       <c r="N74" s="57"/>
       <c r="O74" s="57"/>
     </row>
     <row r="75" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="201" t="s">
+      <c r="A75" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="B75" s="202"/>
-      <c r="C75" s="202"/>
-      <c r="D75" s="123"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="144"/>
-      <c r="H75" s="144"/>
-      <c r="I75" s="144"/>
-      <c r="J75" s="144"/>
-      <c r="K75" s="144"/>
-      <c r="L75" s="144"/>
-      <c r="M75" s="145"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="178"/>
+      <c r="D75" s="120"/>
+      <c r="F75" s="228"/>
+      <c r="G75" s="229"/>
+      <c r="H75" s="229"/>
+      <c r="I75" s="229"/>
+      <c r="J75" s="229"/>
+      <c r="K75" s="229"/>
+      <c r="L75" s="229"/>
+      <c r="M75" s="230"/>
       <c r="N75" s="57"/>
       <c r="O75" s="57"/>
     </row>
@@ -4910,60 +5051,60 @@
       <c r="M76" s="49"/>
     </row>
     <row r="77" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="196" t="s">
+      <c r="A77" s="220" t="s">
         <v>230</v>
       </c>
-      <c r="B77" s="197"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="198"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="141"/>
-      <c r="J77" s="141"/>
-      <c r="K77" s="141"/>
-      <c r="L77" s="141"/>
-      <c r="M77" s="142"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="222"/>
+      <c r="F77" s="225"/>
+      <c r="G77" s="226"/>
+      <c r="H77" s="226"/>
+      <c r="I77" s="226"/>
+      <c r="J77" s="226"/>
+      <c r="K77" s="226"/>
+      <c r="L77" s="226"/>
+      <c r="M77" s="227"/>
     </row>
     <row r="78" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="214"/>
-      <c r="B78" s="215"/>
+      <c r="A78" s="201"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="105" t="s">
         <v>228</v>
       </c>
       <c r="D78" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="F78" s="140"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="141"/>
-      <c r="J78" s="141"/>
-      <c r="K78" s="141"/>
-      <c r="L78" s="141"/>
-      <c r="M78" s="142"/>
+      <c r="F78" s="225"/>
+      <c r="G78" s="226"/>
+      <c r="H78" s="226"/>
+      <c r="I78" s="226"/>
+      <c r="J78" s="226"/>
+      <c r="K78" s="226"/>
+      <c r="L78" s="226"/>
+      <c r="M78" s="227"/>
     </row>
     <row r="79" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="194" t="s">
+      <c r="A79" s="218" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="195"/>
+      <c r="B79" s="219"/>
       <c r="C79" s="104"/>
       <c r="D79" s="108"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="144"/>
-      <c r="H79" s="144"/>
-      <c r="I79" s="144"/>
-      <c r="J79" s="144"/>
-      <c r="K79" s="144"/>
-      <c r="L79" s="144"/>
-      <c r="M79" s="145"/>
+      <c r="F79" s="228"/>
+      <c r="G79" s="229"/>
+      <c r="H79" s="229"/>
+      <c r="I79" s="229"/>
+      <c r="J79" s="229"/>
+      <c r="K79" s="229"/>
+      <c r="L79" s="229"/>
+      <c r="M79" s="230"/>
     </row>
     <row r="80" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="194" t="s">
+      <c r="A80" s="218" t="s">
         <v>226</v>
       </c>
-      <c r="B80" s="195"/>
+      <c r="B80" s="219"/>
       <c r="C80" s="104"/>
       <c r="D80" s="108"/>
       <c r="F80" s="46" t="s">
@@ -4978,10 +5119,10 @@
       <c r="M80" s="92"/>
     </row>
     <row r="81" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="207" t="s">
+      <c r="A81" s="191" t="s">
         <v>227</v>
       </c>
-      <c r="B81" s="208"/>
+      <c r="B81" s="192"/>
       <c r="C81" s="109"/>
       <c r="D81" s="110"/>
       <c r="F81" s="53"/>
@@ -5065,47 +5206,47 @@
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="190" t="s">
+      <c r="A89" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="190"/>
-      <c r="C89" s="190"/>
-      <c r="D89" s="190"/>
-      <c r="E89" s="190"/>
-      <c r="F89" s="190"/>
-      <c r="G89" s="190"/>
-      <c r="H89" s="190"/>
-      <c r="I89" s="190"/>
-      <c r="J89" s="190"/>
-      <c r="K89" s="190"/>
-      <c r="L89" s="190"/>
-      <c r="M89" s="191"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="141"/>
+      <c r="G89" s="141"/>
+      <c r="H89" s="141"/>
+      <c r="I89" s="141"/>
+      <c r="J89" s="141"/>
+      <c r="K89" s="141"/>
+      <c r="L89" s="141"/>
+      <c r="M89" s="215"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J90" s="14"/>
     </row>
     <row r="91" spans="1:19" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="209" t="s">
+      <c r="A91" s="193" t="s">
         <v>257</v>
       </c>
-      <c r="B91" s="210"/>
-      <c r="C91" s="210"/>
-      <c r="D91" s="210"/>
-      <c r="E91" s="211"/>
-      <c r="F91" s="162" t="s">
+      <c r="B91" s="194"/>
+      <c r="C91" s="194"/>
+      <c r="D91" s="194"/>
+      <c r="E91" s="195"/>
+      <c r="F91" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="164"/>
-      <c r="H91" s="162" t="s">
+      <c r="G91" s="200"/>
+      <c r="H91" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="I91" s="163"/>
-      <c r="J91" s="164"/>
-      <c r="K91" s="163" t="s">
+      <c r="I91" s="236"/>
+      <c r="J91" s="200"/>
+      <c r="K91" s="236" t="s">
         <v>256</v>
       </c>
-      <c r="L91" s="163"/>
-      <c r="M91" s="164"/>
+      <c r="L91" s="236"/>
+      <c r="M91" s="200"/>
       <c r="N91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
@@ -5113,110 +5254,110 @@
       <c r="S91" s="14"/>
     </row>
     <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="184" t="s">
+      <c r="A92" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="B92" s="185"/>
+      <c r="B92" s="208"/>
       <c r="C92" s="61">
         <v>1</v>
       </c>
       <c r="D92" s="62"/>
       <c r="E92" s="63"/>
-      <c r="F92" s="155"/>
-      <c r="G92" s="157"/>
-      <c r="H92" s="155"/>
-      <c r="I92" s="156"/>
-      <c r="J92" s="157"/>
-      <c r="K92" s="156"/>
-      <c r="L92" s="156"/>
-      <c r="M92" s="157"/>
+      <c r="F92" s="189"/>
+      <c r="G92" s="190"/>
+      <c r="H92" s="189"/>
+      <c r="I92" s="234"/>
+      <c r="J92" s="190"/>
+      <c r="K92" s="234"/>
+      <c r="L92" s="234"/>
+      <c r="M92" s="190"/>
     </row>
     <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="186"/>
-      <c r="B93" s="187"/>
+      <c r="A93" s="209"/>
+      <c r="B93" s="210"/>
       <c r="C93" s="64">
         <v>2</v>
       </c>
       <c r="D93" s="65"/>
       <c r="E93" s="66"/>
-      <c r="F93" s="149"/>
-      <c r="G93" s="151"/>
-      <c r="H93" s="149"/>
-      <c r="I93" s="150"/>
-      <c r="J93" s="151"/>
-      <c r="K93" s="150"/>
-      <c r="L93" s="150"/>
-      <c r="M93" s="151"/>
+      <c r="F93" s="203"/>
+      <c r="G93" s="204"/>
+      <c r="H93" s="203"/>
+      <c r="I93" s="232"/>
+      <c r="J93" s="204"/>
+      <c r="K93" s="232"/>
+      <c r="L93" s="232"/>
+      <c r="M93" s="204"/>
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="188"/>
-      <c r="B94" s="189"/>
+      <c r="A94" s="211"/>
+      <c r="B94" s="212"/>
       <c r="C94" s="67">
         <v>3</v>
       </c>
       <c r="D94" s="68"/>
       <c r="E94" s="69"/>
-      <c r="F94" s="152"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="152"/>
-      <c r="I94" s="153"/>
-      <c r="J94" s="154"/>
-      <c r="K94" s="153"/>
-      <c r="L94" s="153"/>
-      <c r="M94" s="154"/>
+      <c r="F94" s="213"/>
+      <c r="G94" s="214"/>
+      <c r="H94" s="213"/>
+      <c r="I94" s="233"/>
+      <c r="J94" s="214"/>
+      <c r="K94" s="233"/>
+      <c r="L94" s="233"/>
+      <c r="M94" s="214"/>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="184" t="s">
+      <c r="A95" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="185"/>
+      <c r="B95" s="208"/>
       <c r="C95" s="61">
         <v>1</v>
       </c>
       <c r="D95" s="62"/>
       <c r="E95" s="63"/>
-      <c r="F95" s="155"/>
-      <c r="G95" s="157"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="156"/>
-      <c r="J95" s="157"/>
-      <c r="K95" s="156"/>
-      <c r="L95" s="156"/>
-      <c r="M95" s="157"/>
+      <c r="F95" s="189"/>
+      <c r="G95" s="190"/>
+      <c r="H95" s="189"/>
+      <c r="I95" s="234"/>
+      <c r="J95" s="190"/>
+      <c r="K95" s="234"/>
+      <c r="L95" s="234"/>
+      <c r="M95" s="190"/>
     </row>
     <row r="96" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="186"/>
-      <c r="B96" s="187"/>
+      <c r="A96" s="209"/>
+      <c r="B96" s="210"/>
       <c r="C96" s="64">
         <v>2</v>
       </c>
       <c r="D96" s="65"/>
       <c r="E96" s="66"/>
-      <c r="F96" s="149"/>
-      <c r="G96" s="151"/>
-      <c r="H96" s="149"/>
-      <c r="I96" s="150"/>
-      <c r="J96" s="151"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="150"/>
-      <c r="M96" s="151"/>
+      <c r="F96" s="203"/>
+      <c r="G96" s="204"/>
+      <c r="H96" s="203"/>
+      <c r="I96" s="232"/>
+      <c r="J96" s="204"/>
+      <c r="K96" s="232"/>
+      <c r="L96" s="232"/>
+      <c r="M96" s="204"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="188"/>
-      <c r="B97" s="189"/>
+      <c r="A97" s="211"/>
+      <c r="B97" s="212"/>
       <c r="C97" s="67">
         <v>3</v>
       </c>
       <c r="D97" s="68"/>
       <c r="E97" s="69"/>
-      <c r="F97" s="152"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="152"/>
-      <c r="I97" s="153"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="153"/>
-      <c r="L97" s="153"/>
-      <c r="M97" s="154"/>
+      <c r="F97" s="213"/>
+      <c r="G97" s="214"/>
+      <c r="H97" s="213"/>
+      <c r="I97" s="233"/>
+      <c r="J97" s="214"/>
+      <c r="K97" s="233"/>
+      <c r="L97" s="233"/>
+      <c r="M97" s="214"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="95" t="s">
@@ -5313,21 +5454,21 @@
       <c r="M105" s="100"/>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="183" t="s">
+      <c r="A108" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="B108" s="183"/>
-      <c r="C108" s="183"/>
-      <c r="D108" s="183"/>
-      <c r="E108" s="183"/>
-      <c r="F108" s="183"/>
-      <c r="G108" s="183"/>
-      <c r="H108" s="183"/>
-      <c r="I108" s="183"/>
-      <c r="J108" s="183"/>
-      <c r="K108" s="183"/>
-      <c r="L108" s="183"/>
-      <c r="M108" s="183"/>
+      <c r="B108" s="206"/>
+      <c r="C108" s="206"/>
+      <c r="D108" s="206"/>
+      <c r="E108" s="206"/>
+      <c r="F108" s="206"/>
+      <c r="G108" s="206"/>
+      <c r="H108" s="206"/>
+      <c r="I108" s="206"/>
+      <c r="J108" s="206"/>
+      <c r="K108" s="206"/>
+      <c r="L108" s="206"/>
+      <c r="M108" s="206"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C110" s="15"/>
@@ -5338,16 +5479,149 @@
   </sheetData>
   <dataConsolidate function="average"/>
   <mergeCells count="177">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="J23:K24"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A108:M108"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="A89:M89"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="F67:M69"/>
+    <mergeCell ref="F71:M71"/>
+    <mergeCell ref="F73:M75"/>
+    <mergeCell ref="F77:M79"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:M25"/>
@@ -5372,152 +5646,19 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J48:K49"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A108:M108"/>
-    <mergeCell ref="A95:B97"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="A89:M89"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M49"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="F67:M69"/>
-    <mergeCell ref="F71:M71"/>
-    <mergeCell ref="F73:M75"/>
-    <mergeCell ref="F77:M79"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="J23:K24"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:G47 F51:G54 G26:G31 F25:F31 G36:G38 F35:F38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:G31 F35:G38 F51:G54 F42:G47">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17">
@@ -6383,12 +6524,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6506,15 +6644,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38306002-A517-4B4A-8937-6F0EB033113D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777D25C9-489C-4E11-98EB-6646A23D34CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6536,16 +6684,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777D25C9-489C-4E11-98EB-6646A23D34CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38306002-A517-4B4A-8937-6F0EB033113D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>